--- a/blanco-meta/rest/SampleRegister.xlsx
+++ b/blanco-meta/rest/SampleRegister.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/rest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4AA2A8-7B08-B34B-83F8-79017737856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8469B7-729C-3B48-BB99-F88C87451095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2178,28 +2178,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>javax.validation.constraints.Size</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>@field:Size(max = 50)
 @field:NotBlank
 @field:Pattern(regexp = "^((?=.*[a-z])(?=.*[A-Z])(?=.*[0-9])|(?=.*[a-z])(?=.*[A-Z])(?=.*[@%\\+\\/\\\'!#\\$\\^\\?:\\.\\(\\)\\{\\}\\[\\]~\\-_])|(?=.*[a-z])(?=.*[0-9])(?=.*[@%\\+\\/\\\'!#\\$\\^\\?:\\.\\(\\)\\{\\}\\[\\]~\\-_])|(?=.*[A-Z])(?=.*[0-9])(?=.*[@%\\+\\/\\\'!#\\$\\^\\?:\\.\\(\\)\\{\\}\\[\\]~\\-_]))[a-zA-Z0-9@%\\+\\/\\\'!#\\$\\^\\?:\\.\\(\\)\\{\\}\\[\\]~\\-_]{8,20}$")</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>javax.validation.constraints.NotBlank</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>javax.validation.constraints.Pattern</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>javax.validation.Valid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>blanco.restgenerator.valueobject.RequestHeader</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2256,6 +2240,22 @@
   </si>
   <si>
     <t>dapanda.api.sample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.Size</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.NotBlank</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.Pattern</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.Valid</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3294,7 +3294,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3325,7 +3325,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3342,7 +3341,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3356,9 +3354,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3367,12 +3362,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3421,7 +3412,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3441,7 +3432,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3491,9 +3481,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3512,7 +3502,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3538,10 +3527,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="59" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3557,6 +3542,93 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3566,9 +3638,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3605,100 +3674,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3709,33 +3721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3858,7 +3843,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="telegramConfig"/>
@@ -4230,7 +4215,7 @@
     <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
@@ -4239,210 +4224,186 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="184" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="82"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="188" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:8" ht="91.5" customHeight="1">
-      <c r="A7" s="191" t="s">
+      <c r="B6" s="146"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="142"/>
+    </row>
+    <row r="7" spans="1:6" ht="91.5" customHeight="1">
+      <c r="A7" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="186" t="s">
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="143" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="144"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="142"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="82"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="184" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="185" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="185"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="184" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="184" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="184"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="185" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="185"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="184" t="s">
+      <c r="E10" s="142"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="185" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="185"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="143" t="s">
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="142"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="162" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="82" t="s">
+      <c r="E12" s="132"/>
+      <c r="F12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="50"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="143" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="50" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="82"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="143" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="162" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="162"/>
+      <c r="E14" s="132"/>
       <c r="F14" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="143" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="163" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="162"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="132"/>
       <c r="F15" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="143" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="163" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="162"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="132"/>
       <c r="F16" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="162"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="160"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="101" t="s">
+      <c r="B18" s="179"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="91" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="144" t="s">
+      <c r="A19" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="87"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="77"/>
       <c r="E19" t="s">
         <v>134</v>
       </c>
@@ -4459,136 +4420,136 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="158"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="177"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="93"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:15">
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="103"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="104"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="105"/>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -4597,80 +4558,80 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="154"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="173"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="103"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="104"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="105"/>
-      <c r="B36" s="180"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -4691,80 +4652,80 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="152" t="s">
+      <c r="A38" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="154"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="173"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
-      <c r="E39" s="177"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="103"/>
-      <c r="B40" s="178"/>
-      <c r="C40" s="178"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="104"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="182"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="105"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
@@ -4792,100 +4753,121 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="120"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="109"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="148"/>
-      <c r="C45" s="147" t="s">
+      <c r="B45" s="167"/>
+      <c r="C45" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="192"/>
-      <c r="E45" s="193"/>
-      <c r="F45" s="121" t="s">
+      <c r="D45" s="139"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="120"/>
+      <c r="G45" s="109"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="164"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="173"/>
+      <c r="A46" s="133"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="137"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="47"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="164"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="173"/>
+      <c r="A47" s="133"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="137"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="47"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="164"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="173"/>
+      <c r="A48" s="133"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="137"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="47"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="164"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="172"/>
-      <c r="E49" s="173"/>
+      <c r="A49" s="133"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="137"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="47"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="164"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="173"/>
+      <c r="A50" s="133"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="137"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="47"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="164"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
+      <c r="A51" s="133"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="137"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="47"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="166"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="122"/>
+      <c r="A52" s="149"/>
+      <c r="B52" s="150"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
@@ -4902,38 +4884,17 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4966,10 +4927,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5030,45 +4991,27 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="114" t="str">
+      <c r="C6" s="104" t="str">
         <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
         <v>SampleRegisterPostRequest</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="D6" s="105"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
+      <c r="C7" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="103"/>
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17">
@@ -5076,138 +5019,104 @@
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="D8" s="101"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="97" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="107"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="H10" s="27"/>
-      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="107"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="H11" s="27"/>
-      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="H12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="102"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="185" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="C13" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="142"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="C14" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="31"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="162" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="82" t="s">
+      <c r="D15" s="132"/>
+      <c r="E15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="50"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="82"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="77"/>
       <c r="D17" t="s">
         <v>134</v>
       </c>
@@ -5225,11 +5134,11 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="77"/>
       <c r="D18" t="s">
         <v>152</v>
       </c>
@@ -5248,264 +5157,263 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="6"/>
-      <c r="C19" s="27"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="92"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="82"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="103"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="99"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="89"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="104"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="105"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
     </row>
     <row r="25" spans="1:20">
       <c r="C25"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="152" t="s">
+      <c r="A26" s="171" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="154"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="173"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="92"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="82"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="103">
+      <c r="A28" s="93">
         <v>1</v>
       </c>
-      <c r="B28" s="178" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
+      <c r="B28" s="158" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="103">
+      <c r="A29" s="93">
         <v>2</v>
       </c>
-      <c r="B29" s="178" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
+      <c r="B29" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="103">
+      <c r="A30" s="93">
         <v>3</v>
       </c>
-      <c r="B30" s="178" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
+      <c r="B30" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="104"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="105"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:20">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -5514,10 +5422,10 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -5525,98 +5433,98 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="152" t="s">
+    <row r="34" spans="1:20">
+      <c r="A34" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="154"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="102" t="s">
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="173"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="92"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="82"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="98"/>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="A36" s="103"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="93"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="104"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
+    <row r="37" spans="1:20">
+      <c r="A37" s="94"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="105"/>
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="99"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99"/>
+    <row r="38" spans="1:20">
+      <c r="A38" s="95"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:20">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -5632,363 +5540,316 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:20">
       <c r="A40" s="6"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="18" t="s">
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="194" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="194" t="s">
+      <c r="B42" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="196" t="s">
+      <c r="C42" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="194" t="s">
+      <c r="D42" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="197" t="s">
+      <c r="E42" s="193" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="194" t="s">
+      <c r="G42" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="194" t="s">
+      <c r="H42" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="203" t="s">
+      <c r="I42" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="203" t="s">
+      <c r="J42" s="189" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="203" t="s">
+      <c r="K42" s="189" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="204" t="s">
+      <c r="L42" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="194" t="s">
+      <c r="M42" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="N42" s="200" t="s">
+      <c r="N42" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="201"/>
-      <c r="P42" s="200" t="s">
+      <c r="O42" s="185"/>
+      <c r="P42" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="201"/>
-      <c r="R42" s="32" t="s">
+      <c r="Q42" s="185"/>
+      <c r="R42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="194" t="s">
+      <c r="S42" s="186" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
-      <c r="A43" s="195"/>
-      <c r="B43" s="195"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="199"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="203"/>
-      <c r="J43" s="203"/>
-      <c r="K43" s="203"/>
-      <c r="L43" s="205"/>
-      <c r="M43" s="202"/>
-      <c r="N43" s="28" t="s">
+    <row r="43" spans="1:20">
+      <c r="A43" s="187"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="188"/>
+      <c r="N43" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O43" s="28" t="s">
+      <c r="O43" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="P43" s="28" t="s">
+      <c r="P43" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q43" s="28" t="s">
+      <c r="Q43" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="28" t="s">
+      <c r="R43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="195"/>
-    </row>
-    <row r="44" spans="1:24" ht="45">
+      <c r="S43" s="187"/>
+    </row>
+    <row r="44" spans="1:20" ht="45">
       <c r="A44" s="7">
         <v>1</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>179</v>
+      <c r="B44" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="75" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44" s="131"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="30">
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="L44" s="120"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="28">
         <v>254</v>
       </c>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="1:24" ht="370">
+    <row r="45" spans="1:20" ht="370">
       <c r="A45" s="10">
         <f>A44+1</f>
         <v>2</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>156</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="76" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H45" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="141" t="s">
-        <v>173</v>
-      </c>
-      <c r="L45" s="132"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="30">
+      <c r="I45" s="121"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="L45" s="121"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="28">
         <v>50</v>
       </c>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:20">
       <c r="A46" s="10"/>
-      <c r="B46" s="21"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="141"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:20">
       <c r="A47" s="14"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="1:24">
-      <c r="I48" s="135"/>
-      <c r="J48" s="135"/>
-      <c r="K48" s="135"/>
-      <c r="L48" s="135"/>
-    </row>
-    <row r="49" spans="9:12">
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
+    <row r="48" spans="1:20">
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
     </row>
     <row r="50" spans="9:12">
-      <c r="I50" s="135"/>
-      <c r="J50" s="135"/>
-      <c r="K50" s="135"/>
-      <c r="L50" s="135"/>
-    </row>
-    <row r="51" spans="9:12">
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
     </row>
     <row r="52" spans="9:12">
-      <c r="I52" s="135"/>
-      <c r="J52" s="135"/>
-      <c r="K52" s="135"/>
-      <c r="L52" s="135"/>
-    </row>
-    <row r="53" spans="9:12">
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-    </row>
-    <row r="54" spans="9:12">
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-    </row>
-    <row r="55" spans="9:12">
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-    </row>
-    <row r="56" spans="9:12">
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-    </row>
-    <row r="57" spans="9:12">
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="123"/>
     </row>
     <row r="58" spans="9:12">
-      <c r="I58" s="136"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="136"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
     </row>
     <row r="59" spans="9:12">
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="136"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
     </row>
     <row r="60" spans="9:12">
-      <c r="I60" s="136"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="136"/>
-      <c r="L60" s="136"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
     </row>
     <row r="61" spans="9:12">
-      <c r="I61" s="136"/>
-      <c r="J61" s="136"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="136"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
     </row>
     <row r="62" spans="9:12">
-      <c r="I62" s="136"/>
-      <c r="J62" s="136"/>
-      <c r="K62" s="136"/>
-      <c r="L62" s="136"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
     </row>
     <row r="63" spans="9:12">
-      <c r="I63" s="136"/>
-      <c r="J63" s="136"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
     </row>
     <row r="64" spans="9:12">
-      <c r="I64" s="136"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
     </row>
     <row r="65" spans="9:12">
-      <c r="I65" s="136"/>
-      <c r="J65" s="136"/>
-      <c r="K65" s="136"/>
-      <c r="L65" s="136"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
     </row>
     <row r="66" spans="9:12">
-      <c r="I66" s="136"/>
-      <c r="J66" s="136"/>
-      <c r="K66" s="136"/>
-      <c r="L66" s="136"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
     </row>
     <row r="67" spans="9:12">
-      <c r="I67" s="136"/>
-      <c r="J67" s="136"/>
-      <c r="K67" s="136"/>
-      <c r="L67" s="136"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
     </row>
     <row r="69" spans="9:12">
       <c r="I69"/>
@@ -5997,103 +5858,123 @@
       <c r="L69"/>
     </row>
     <row r="70" spans="9:12">
-      <c r="I70" s="98"/>
-      <c r="J70" s="98"/>
-      <c r="K70" s="98"/>
-      <c r="L70" s="98"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
     </row>
     <row r="71" spans="9:12">
-      <c r="I71" s="98"/>
-      <c r="J71" s="98"/>
-      <c r="K71" s="98"/>
-      <c r="L71" s="98"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
     </row>
     <row r="72" spans="9:12">
-      <c r="K72" s="134"/>
+      <c r="K72" s="123"/>
     </row>
     <row r="73" spans="9:12">
-      <c r="K73" s="134"/>
+      <c r="K73" s="123"/>
     </row>
     <row r="76" spans="9:12">
-      <c r="I76" s="134"/>
-      <c r="J76" s="134"/>
-      <c r="K76" s="134"/>
-      <c r="L76" s="134"/>
+      <c r="I76" s="123"/>
+      <c r="J76" s="123"/>
+      <c r="K76" s="123"/>
+      <c r="L76" s="123"/>
     </row>
     <row r="78" spans="9:12">
-      <c r="I78" s="134"/>
-      <c r="J78" s="134"/>
-      <c r="K78" s="134"/>
-      <c r="L78" s="134"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
     </row>
     <row r="80" spans="9:12">
-      <c r="I80" s="134"/>
-      <c r="J80" s="134"/>
-      <c r="K80" s="134"/>
-      <c r="L80" s="134"/>
+      <c r="I80" s="123"/>
+      <c r="J80" s="123"/>
+      <c r="K80" s="123"/>
+      <c r="L80" s="123"/>
     </row>
     <row r="86" spans="9:12">
-      <c r="I86" s="92"/>
-      <c r="J86" s="92"/>
-      <c r="K86" s="92"/>
-      <c r="L86" s="92"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
+      <c r="K86" s="82"/>
+      <c r="L86" s="82"/>
     </row>
     <row r="87" spans="9:12">
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="92"/>
-      <c r="L87" s="92"/>
+      <c r="I87" s="82"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
     </row>
     <row r="88" spans="9:12">
-      <c r="I88" s="92"/>
-      <c r="J88" s="92"/>
-      <c r="K88" s="92"/>
-      <c r="L88" s="92"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="82"/>
+      <c r="L88" s="82"/>
     </row>
     <row r="89" spans="9:12">
-      <c r="I89" s="92"/>
-      <c r="J89" s="92"/>
-      <c r="K89" s="92"/>
-      <c r="L89" s="92"/>
+      <c r="I89" s="82"/>
+      <c r="J89" s="82"/>
+      <c r="K89" s="82"/>
+      <c r="L89" s="82"/>
     </row>
     <row r="90" spans="9:12">
-      <c r="I90" s="92"/>
-      <c r="J90" s="92"/>
-      <c r="K90" s="92"/>
-      <c r="L90" s="92"/>
+      <c r="I90" s="82"/>
+      <c r="J90" s="82"/>
+      <c r="K90" s="82"/>
+      <c r="L90" s="82"/>
     </row>
     <row r="91" spans="9:12">
-      <c r="I91" s="92"/>
-      <c r="J91" s="92"/>
-      <c r="K91" s="92"/>
-      <c r="L91" s="92"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="82"/>
     </row>
     <row r="92" spans="9:12">
-      <c r="I92" s="92"/>
-      <c r="J92" s="92"/>
-      <c r="K92" s="92"/>
-      <c r="L92" s="92"/>
+      <c r="I92" s="82"/>
+      <c r="J92" s="82"/>
+      <c r="K92" s="82"/>
+      <c r="L92" s="82"/>
     </row>
     <row r="93" spans="9:12">
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="92"/>
-      <c r="L93" s="92"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="82"/>
+      <c r="L93" s="82"/>
     </row>
     <row r="94" spans="9:12">
-      <c r="I94" s="92"/>
-      <c r="J94" s="92"/>
-      <c r="K94" s="92"/>
-      <c r="L94" s="92"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="82"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="82"/>
     </row>
     <row r="95" spans="9:12">
-      <c r="I95" s="92"/>
-      <c r="J95" s="92"/>
-      <c r="K95" s="92"/>
-      <c r="L95" s="92"/>
+      <c r="I95" s="82"/>
+      <c r="J95" s="82"/>
+      <c r="K95" s="82"/>
+      <c r="L95" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
@@ -6110,26 +5991,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6190,7 +6051,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6251,42 +6112,27 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="H5" s="27"/>
-      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="116" t="str">
+      <c r="C6" s="106" t="str">
         <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
         <v>SampleRegisterPostResponse</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="H6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="D6" s="105"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
+      <c r="C7" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="31"/>
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:18">
@@ -6294,91 +6140,68 @@
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="H8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="D9" s="72"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="185" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="M10" s="27"/>
+      <c r="C10" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="142"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="185" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="185"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="M11" s="27"/>
+      <c r="C11" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="142"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="162" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="162"/>
-      <c r="E12" s="82" t="s">
+      <c r="D12" s="132"/>
+      <c r="E12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="H12" s="50"/>
-      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="N13" s="82"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="87"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="77"/>
       <c r="D14" t="s">
         <v>134</v>
       </c>
@@ -6396,109 +6219,107 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="92"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="82"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="103"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="99"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="89"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="104"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="99"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="89"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="105"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="99"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="89"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
@@ -6509,176 +6330,176 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="99"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="171" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="99"/>
+      <c r="M22" s="89"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="92"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="82"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="103">
+      <c r="A24" s="93">
         <v>1</v>
       </c>
-      <c r="B24" s="178" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
+      <c r="B24" s="158" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="103">
+      <c r="A25" s="93">
         <v>2</v>
       </c>
-      <c r="B25" s="178" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
+      <c r="B25" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="104">
+      <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="179" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
+      <c r="B26" s="159" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="103">
+      <c r="A27" s="93">
         <v>4</v>
       </c>
-      <c r="B27" s="178" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
+      <c r="B27" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="104"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="105"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
@@ -6696,7 +6517,7 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30" s="99"/>
+      <c r="M30" s="89"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
@@ -6704,100 +6525,100 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="154"/>
-      <c r="M31" s="99"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
+      <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="103"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
       <c r="M33"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="104"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="105"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -6815,7 +6636,7 @@
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
-      <c r="M36" s="99"/>
+      <c r="M36" s="89"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
@@ -6824,355 +6645,340 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="6"/>
-      <c r="M37" s="99"/>
+      <c r="M37" s="89"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="54"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="197" t="s">
+      <c r="A39" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="197" t="s">
+      <c r="B39" s="193" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="197" t="s">
+      <c r="D39" s="193" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="197" t="s">
+      <c r="E39" s="193" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="197" t="s">
+      <c r="F39" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="197" t="s">
+      <c r="G39" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="197" t="s">
+      <c r="H39" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="213" t="s">
+      <c r="I39" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="215" t="s">
+      <c r="J39" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="215" t="s">
+      <c r="K39" s="202" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="204" t="s">
+      <c r="L39" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="194" t="s">
+      <c r="M39" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="212" t="s">
+      <c r="N39" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="210"/>
-      <c r="P39" s="209" t="s">
+      <c r="O39" s="197"/>
+      <c r="P39" s="196" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="210"/>
-      <c r="R39" s="55" t="s">
+      <c r="Q39" s="197"/>
+      <c r="R39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="197" t="s">
+      <c r="S39" s="193" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15">
-      <c r="A40" s="211"/>
-      <c r="B40" s="211"/>
-      <c r="C40" s="57" t="s">
+      <c r="A40" s="198"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="211"/>
-      <c r="E40" s="199"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="216"/>
-      <c r="L40" s="217"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="58" t="s">
+      <c r="D40" s="198"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="203"/>
+      <c r="K40" s="203"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="O40" s="58" t="s">
+      <c r="O40" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="P40" s="58" t="s">
+      <c r="P40" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="Q40" s="58" t="s">
+      <c r="Q40" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="R40" s="59" t="s">
+      <c r="R40" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="211"/>
+      <c r="S40" s="198"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="60"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="141"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="64"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="55"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="60"/>
-      <c r="B42" s="123"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="64"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="55"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="64"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="55"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="60"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="142"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="67"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="58"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="60"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="142"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="67"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="58"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="68"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="73"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="64"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="I47" s="135"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="135"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
     </row>
     <row r="49" spans="9:12">
-      <c r="I49" s="135"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="135"/>
-    </row>
-    <row r="50" spans="9:12">
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-    </row>
-    <row r="51" spans="9:12">
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-    </row>
-    <row r="52" spans="9:12">
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-    </row>
-    <row r="53" spans="9:12">
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-    </row>
-    <row r="54" spans="9:12">
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
     </row>
     <row r="55" spans="9:12">
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
     </row>
     <row r="57" spans="9:12">
-      <c r="I57" s="136"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="136"/>
-      <c r="L57" s="136"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
     </row>
     <row r="58" spans="9:12">
-      <c r="I58" s="136"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="136"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
     </row>
     <row r="59" spans="9:12">
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="136"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
     </row>
     <row r="60" spans="9:12">
-      <c r="I60" s="136"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="136"/>
-      <c r="L60" s="136"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
     </row>
     <row r="61" spans="9:12">
-      <c r="I61" s="136"/>
-      <c r="J61" s="136"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="136"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
     </row>
     <row r="62" spans="9:12">
-      <c r="I62" s="136"/>
-      <c r="J62" s="136"/>
-      <c r="K62" s="136"/>
-      <c r="L62" s="136"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
     </row>
     <row r="63" spans="9:12">
-      <c r="I63" s="136"/>
-      <c r="J63" s="136"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
     </row>
     <row r="64" spans="9:12">
-      <c r="I64" s="136"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B34:G34"/>
@@ -7189,27 +6995,6 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -7261,9 +7046,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="38" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="38"/>
+    <col min="1" max="1" width="3.6640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="33" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
@@ -7367,7 +7152,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7377,19 +7162,19 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="1"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="1"/>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="33" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7400,7 +7185,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="33" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7418,7 +7203,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="1"/>
@@ -7431,22 +7216,22 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="33" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7456,122 +7241,122 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="33" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="33" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="33" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="33" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7605,8 +7390,8 @@
       <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="E1" s="1" t="s">
         <v>113</v>
       </c>
@@ -7615,37 +7400,37 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="8"/>
@@ -7657,30 +7442,30 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="14"/>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="11" t="s">
         <v>120</v>
       </c>
     </row>
